--- a/Table_Design.xlsx
+++ b/Table_Design.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Transaction Table</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Time Date</t>
   </si>
   <si>
-    <t>CUST101256</t>
-  </si>
-  <si>
-    <t>CUST1012</t>
-  </si>
-  <si>
     <t>yeserday</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>AccountId</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -225,13 +216,25 @@
     <t>Saving inherits</t>
   </si>
   <si>
-    <t>Credit Inherits</t>
-  </si>
-  <si>
     <t>FK= Refernce to Customer_Master</t>
   </si>
   <si>
     <t>User_Id</t>
+  </si>
+  <si>
+    <t>Account_Id</t>
+  </si>
+  <si>
+    <t>Current Inherits</t>
+  </si>
+  <si>
+    <t>has OneToMany relationship with Transaction table</t>
+  </si>
+  <si>
+    <t>Relationship : OneToOne mapping with Accounts</t>
+  </si>
+  <si>
+    <t>Beneficary_Id</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,59 +571,59 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -640,17 +643,17 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -661,17 +664,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H9"/>
+  <dimension ref="A3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,82 +682,89 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>435465656</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>455554645</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>7878656545</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8">
-        <v>455554645</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>7878656545</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>435465616</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>7878656545</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>455554645</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>7878656545</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>455554645</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +777,7 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,40 +790,40 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>123456</v>
@@ -821,13 +831,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
       </c>
       <c r="D6">
         <v>123457</v>
@@ -835,13 +845,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>123458</v>
@@ -849,25 +859,25 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,49 +901,54 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +961,7 @@
   <dimension ref="B4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,50 +975,53 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>453453456</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Design.xlsx
+++ b/Table_Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Details_TBL" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
